--- a/output/immunization-air.xlsx
+++ b/output/immunization-air.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="479">
   <si>
     <t>Path</t>
   </si>
@@ -489,7 +489,7 @@
     <t>Serial number</t>
   </si>
   <si>
-    <t>Serial number for a vial of vaccine.</t>
+    <t>Serial number for the vial of vaccine used in an administration.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1385,19 +1385,6 @@
   </si>
   <si>
     <t>Immunization.vaccinationProtocol.extension</t>
-  </si>
-  <si>
-    <t>doseSchedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/immunisation-dose-schedule-1}
-</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>A schedule point for the National Immunisation Program childhood and adolescent vaccination schedules, and for other vaccines not part of the National Immunisation Program.</t>
   </si>
   <si>
     <t>Immunization.vaccinationProtocol.modifierExtension</t>
@@ -1672,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,7 +1669,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.41015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -9537,7 +9524,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9559,12 +9546,14 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9601,14 +9590,16 @@
         <v>41</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>79</v>
@@ -9629,7 +9620,7 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
@@ -9641,42 +9632,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B71" t="s" s="2">
         <v>439</v>
       </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I71" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>440</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9725,7 +9716,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9734,16 +9725,16 @@
         <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -9755,42 +9746,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>441</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9839,13 +9828,13 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>41</v>
@@ -9857,7 +9846,7 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>143</v>
+        <v>444</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
@@ -9869,9 +9858,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9885,7 +9874,7 @@
         <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>41</v>
@@ -9894,7 +9883,7 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>445</v>
+        <v>65</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>446</v>
@@ -9951,7 +9940,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10006,7 +9995,7 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>450</v>
@@ -10118,7 +10107,7 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>454</v>
@@ -10193,7 +10182,7 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>41</v>
@@ -10207,7 +10196,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10230,13 +10219,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>65</v>
+        <v>441</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10287,7 +10276,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10305,7 +10294,7 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
@@ -10317,9 +10306,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10327,13 +10316,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10342,13 +10331,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>445</v>
+        <v>186</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10375,13 +10364,13 @@
         <v>41</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>41</v>
@@ -10399,13 +10388,13 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
@@ -10417,7 +10406,7 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>41</v>
@@ -10429,9 +10418,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10442,10 +10431,10 @@
         <v>51</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -10457,19 +10446,21 @@
         <v>186</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>41</v>
+        <v>469</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>41</v>
@@ -10490,10 +10481,10 @@
         <v>110</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>41</v>
@@ -10511,13 +10502,13 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
@@ -10529,7 +10520,7 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
@@ -10543,7 +10534,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10551,7 +10542,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>51</v>
@@ -10569,21 +10560,19 @@
         <v>186</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>41</v>
@@ -10604,10 +10593,10 @@
         <v>110</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>41</v>
@@ -10625,10 +10614,10 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>51</v>
@@ -10643,7 +10632,7 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -10652,123 +10641,11 @@
         <v>41</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN80" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN80">
+  <autoFilter ref="A1:AN79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10778,7 +10655,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/immunization-air.xlsx
+++ b/output/immunization-air.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -650,233 +650,6 @@
   </si>
   <si>
     <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Immunization.patient.id</t>
-  </si>
-  <si>
-    <t>Immunization.patient.extension</t>
-  </si>
-  <si>
-    <t>Immunization.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier</t>
-  </si>
-  <si>
-    <t>Individual Healthcare Identifier (IHI)</t>
-  </si>
-  <si>
-    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
-      &lt;code value="NI"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
-  &lt;system value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;
-&lt;/valueIdentifier&gt;</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.value</t>
-  </si>
-  <si>
-    <t>IHI</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Immunization.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Immunization.encounter</t>
@@ -1005,6 +778,10 @@
   </si>
   <si>
     <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Vaccine manufacturer</t>
@@ -1659,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1691,7 +1468,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -4347,13 +4124,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4404,7 +4181,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4419,38 +4196,38 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4459,16 +4236,16 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4506,25 +4283,25 @@
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -4533,24 +4310,24 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4558,31 +4335,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4590,7 +4367,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>41</v>
@@ -4632,28 +4409,28 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4664,7 +4441,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4672,7 +4449,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4684,19 +4461,19 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4707,7 +4484,7 @@
         <v>41</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>41</v>
@@ -4722,13 +4499,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4746,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4761,13 +4538,13 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4778,7 +4555,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4801,13 +4578,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4858,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4873,13 +4650,13 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4890,18 +4667,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4913,17 +4690,15 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4960,25 +4735,25 @@
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4987,10 +4762,10 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4999,12 +4774,12 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5018,29 +4793,25 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -5064,13 +4835,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -5088,7 +4859,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5103,10 +4874,10 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -5115,12 +4886,12 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5140,23 +4911,19 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5180,13 +4947,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5204,7 +4971,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5219,10 +4986,10 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5236,7 +5003,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5256,21 +5023,19 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5282,7 +5047,7 @@
         <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>41</v>
@@ -5294,13 +5059,13 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5318,7 +5083,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5333,10 +5098,10 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5345,12 +5110,12 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5358,7 +5123,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
@@ -5370,20 +5135,18 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5396,7 +5159,7 @@
         <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>41</v>
@@ -5408,13 +5171,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5432,7 +5195,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5447,10 +5210,10 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5459,12 +5222,12 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5484,16 +5247,16 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5544,7 +5307,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5559,10 +5322,10 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5576,7 +5339,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5587,7 +5350,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5599,17 +5362,15 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5658,31 +5419,31 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5690,7 +5451,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5710,20 +5471,18 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>65</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5772,7 +5531,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5790,7 +5549,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5804,18 +5563,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5827,15 +5586,17 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5884,13 +5645,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5899,56 +5660,56 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5998,13 +5759,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -6013,24 +5774,24 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>291</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6038,39 +5799,37 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>41</v>
@@ -6088,13 +5847,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6112,10 +5871,10 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>51</v>
@@ -6127,16 +5886,16 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6144,7 +5903,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6152,7 +5911,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
@@ -6164,20 +5923,18 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6202,34 +5959,34 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>51</v>
@@ -6241,16 +5998,16 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6258,7 +6015,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6269,7 +6026,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -6278,16 +6035,16 @@
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6338,13 +6095,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6353,16 +6110,16 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6370,7 +6127,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6393,13 +6150,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6450,7 +6207,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6462,13 +6219,13 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6477,12 +6234,12 @@
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6496,7 +6253,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6508,10 +6265,10 @@
         <v>65</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>67</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6562,7 +6319,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6577,10 +6334,10 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6589,23 +6346,23 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6617,15 +6374,17 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6674,13 +6433,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6689,10 +6448,10 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>69</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6706,38 +6465,40 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>333</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6762,13 +6523,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6786,13 +6547,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6801,10 +6562,10 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6813,12 +6574,12 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6829,7 +6590,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -6844,10 +6605,10 @@
         <v>186</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6877,10 +6638,10 @@
         <v>110</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6898,13 +6659,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6913,24 +6674,24 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6941,7 +6702,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>41</v>
@@ -6953,13 +6714,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6986,13 +6747,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7010,13 +6771,13 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -7025,16 +6786,16 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7042,7 +6803,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7062,18 +6823,20 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7122,7 +6885,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7134,19 +6897,19 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7154,7 +6917,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7266,7 +7029,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7380,11 +7143,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7409,7 +7172,7 @@
         <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>75</v>
@@ -7462,7 +7225,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7494,7 +7257,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7514,16 +7277,16 @@
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7550,13 +7313,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7574,7 +7337,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7589,16 +7352,16 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7606,7 +7369,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7614,7 +7377,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
@@ -7626,16 +7389,16 @@
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7686,10 +7449,10 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>51</v>
@@ -7701,16 +7464,16 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7718,7 +7481,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7729,7 +7492,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7738,16 +7501,16 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>383</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7798,13 +7561,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7813,24 +7576,24 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7838,13 +7601,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -7853,13 +7616,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7910,25 +7673,25 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -7942,7 +7705,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8054,7 +7817,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8168,11 +7931,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8197,7 +7960,7 @@
         <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>75</v>
@@ -8250,7 +8013,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8280,9 +8043,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8293,10 +8056,10 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -8305,13 +8068,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8338,13 +8101,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8362,13 +8125,13 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -8380,13 +8143,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8394,7 +8157,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8405,7 +8168,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8417,13 +8180,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8450,13 +8213,13 @@
         <v>41</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8474,13 +8237,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8489,16 +8252,16 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8506,7 +8269,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8517,7 +8280,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8529,17 +8292,15 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8588,25 +8349,25 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>412</v>
+        <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
@@ -8620,7 +8381,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8646,10 +8407,10 @@
         <v>65</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8700,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>68</v>
+        <v>383</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8718,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
@@ -8732,18 +8493,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -8755,17 +8516,15 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8814,13 +8573,13 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
@@ -8832,7 +8591,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>69</v>
+        <v>378</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
@@ -8844,42 +8603,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8904,13 +8661,13 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -8928,10 +8685,10 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>43</v>
@@ -8946,7 +8703,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>143</v>
+        <v>394</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
@@ -8960,7 +8717,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8968,7 +8725,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -8983,15 +8740,17 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9001,7 +8760,7 @@
         <v>41</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>41</v>
@@ -9016,13 +8775,13 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9040,10 +8799,10 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>51</v>
@@ -9055,10 +8814,10 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>288</v>
+        <v>402</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
@@ -9072,7 +8831,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9095,13 +8854,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>422</v>
+        <v>186</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9128,13 +8887,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9152,7 +8911,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9167,10 +8926,10 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
@@ -9179,1473 +8938,11 @@
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN79" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN79">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10655,7 +8952,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
